--- a/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6728832125415432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6903639504704451</v>
+        <v>0.6903639504704453</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8432021334803539</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.782150767307449</v>
+        <v>0.7858633592971102</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6841553079353151</v>
+        <v>0.6859411750163679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6091501881528409</v>
+        <v>0.6138249731846428</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6357740087221148</v>
+        <v>0.6353692449953733</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7922400965475376</v>
+        <v>0.7925481480598436</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5785402301767837</v>
+        <v>0.5770831351352003</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5763958930224634</v>
+        <v>0.5750078621149394</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6208063872636732</v>
+        <v>0.6224677501786589</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8018254458429093</v>
+        <v>0.8025237463503758</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6464566056984221</v>
+        <v>0.6463938152399752</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.613270888729887</v>
+        <v>0.613423683192897</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6438851404871212</v>
+        <v>0.6440086145709782</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8761540103609008</v>
+        <v>0.880206105206441</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7920882349950361</v>
+        <v>0.7879230118094694</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7269512407704307</v>
+        <v>0.7258373392610705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7400431468208476</v>
+        <v>0.7398036911603779</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8910486416954753</v>
+        <v>0.8844965226494501</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7058055993501684</v>
+        <v>0.6966997447455288</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6922192262720004</v>
+        <v>0.6904563756890139</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7003890583635747</v>
+        <v>0.7052540643312429</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8700558863299511</v>
+        <v>0.8707772532954889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7282996646881607</v>
+        <v>0.7318894863356841</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6937356478842605</v>
+        <v>0.6935853907273873</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7091563888359849</v>
+        <v>0.7115430072710399</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7229064530002823</v>
+        <v>0.7213139058067715</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6813778837502958</v>
+        <v>0.6738954407009009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6967131242847912</v>
+        <v>0.6932423254401519</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6696970530176495</v>
+        <v>0.6717602687672743</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6140683718950538</v>
+        <v>0.6115092832802725</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6018303970602987</v>
+        <v>0.6009029702744121</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5858436818734098</v>
+        <v>0.585937633596974</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6478660067042943</v>
+        <v>0.6524135040919757</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6803626913824933</v>
+        <v>0.6820340946972715</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6532377808741631</v>
+        <v>0.6529768114678225</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6535337622435087</v>
+        <v>0.653936095360402</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6721642193436814</v>
+        <v>0.6736735459010763</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8027995329704505</v>
+        <v>0.8014471900277874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7644626094916105</v>
+        <v>0.7604643397085411</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7747886351041979</v>
+        <v>0.7761114225174665</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7698749759733733</v>
+        <v>0.7762185421689282</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6999743375920063</v>
+        <v>0.6947229365401887</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6963552631085257</v>
+        <v>0.688175383308548</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6752018215511267</v>
+        <v>0.6716783660352028</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7239541923846972</v>
+        <v>0.7279992684461354</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7393564602155246</v>
+        <v>0.7388765812815311</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7150445854709587</v>
+        <v>0.7127500400593277</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7113031242560893</v>
+        <v>0.7144422907375083</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7350544740631464</v>
+        <v>0.7331953931070118</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.831915363318336</v>
+        <v>0.8279250623009511</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6473292348266789</v>
+        <v>0.6431028546847339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8288734215336391</v>
+        <v>0.8323956325764046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6876885001749501</v>
+        <v>0.6834792440131835</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7526996642687277</v>
+        <v>0.7527660118149341</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.618339644864017</v>
+        <v>0.6227813543243039</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7358039820160134</v>
+        <v>0.7371716133891262</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6413121186046191</v>
+        <v>0.6437200124927297</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.803674912164413</v>
+        <v>0.8012600672722336</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6499015296212898</v>
+        <v>0.6498552271931873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7944314684891846</v>
+        <v>0.7940927580333942</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6721580689696478</v>
+        <v>0.6710763207129604</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9103595816920307</v>
+        <v>0.9069816129011516</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7499745905549445</v>
+        <v>0.7484373758537651</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9020335402020827</v>
+        <v>0.9057246582681397</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7777392853275664</v>
+        <v>0.7747526203507359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.839089800114211</v>
+        <v>0.8384873858554114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7231159326412725</v>
+        <v>0.724433411826232</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8252000616087687</v>
+        <v>0.8267296965271116</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7214144687540256</v>
+        <v>0.7232685699849787</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8615082505044906</v>
+        <v>0.8613720043074098</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7233814955633081</v>
+        <v>0.7221309568199867</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8539346809425148</v>
+        <v>0.8546956739544954</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7326709263647267</v>
+        <v>0.7335398068692256</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6576528276181381</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7232092573616092</v>
+        <v>0.7232092573616093</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.8173713368267367</v>
@@ -1093,7 +1093,7 @@
         <v>0.5819355322977334</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6122547285867903</v>
+        <v>0.6122547285867904</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.8425510918185292</v>
@@ -1105,7 +1105,7 @@
         <v>0.6191484619373088</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6652039813529171</v>
+        <v>0.6652039813529169</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8289533643547891</v>
+        <v>0.8271491841168258</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6299233614478318</v>
+        <v>0.6280859056312397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6034530491989205</v>
+        <v>0.6004242165816425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6620823524773547</v>
+        <v>0.6596203848213953</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7758809951827476</v>
+        <v>0.7748326958320841</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5030358980071588</v>
+        <v>0.5016786597467037</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5320268531996251</v>
+        <v>0.5290520193710337</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5669548104597293</v>
+        <v>0.5658347266556131</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8147918357057443</v>
+        <v>0.8106244650880031</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5802074864091831</v>
+        <v>0.579814416676078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.583392230624166</v>
+        <v>0.5830221537048289</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6271274167538945</v>
+        <v>0.6299062144361728</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9021754948910073</v>
+        <v>0.9006352830774982</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7270360429361383</v>
+        <v>0.7298030291699056</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7056297066726691</v>
+        <v>0.7089554502984502</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7796724670244055</v>
+        <v>0.7771111799420939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8539273208768399</v>
+        <v>0.8528270787697276</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.600887475480764</v>
+        <v>0.6095420368961064</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6347363156670903</v>
+        <v>0.6338636951394991</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6611244154355428</v>
+        <v>0.6624286853189496</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8683835975380233</v>
+        <v>0.8648379757917058</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6510400211397821</v>
+        <v>0.6520842637338267</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6552270418638514</v>
+        <v>0.6540234435316246</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7000538385554004</v>
+        <v>0.7024161387386084</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9162384269491531</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5557657420258209</v>
+        <v>0.5557657420258207</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7251535789463041</v>
@@ -1241,7 +1241,7 @@
         <v>0.9196115523552443</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.610161188592632</v>
+        <v>0.6101611885926322</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6837328361864451</v>
+        <v>0.6783211718661879</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6149585491191708</v>
+        <v>0.6142966551110863</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8797946004984316</v>
+        <v>0.8765835267964404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6118493964611822</v>
+        <v>0.6110575744455887</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6365397571613074</v>
+        <v>0.6308344036180419</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5352875209077456</v>
+        <v>0.5280847780161051</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8733597965469426</v>
+        <v>0.8743072360768981</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5060622602063048</v>
+        <v>0.5084431808994776</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6774269112805974</v>
+        <v>0.6801172247982999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5944407940074409</v>
+        <v>0.5924794143752082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8903024215950802</v>
+        <v>0.8901015560499469</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5700204186734907</v>
+        <v>0.5696125899456587</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8096429757551438</v>
+        <v>0.8048216198759288</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7497605526495423</v>
+        <v>0.7487411065956593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9527988732957696</v>
+        <v>0.9532440434509156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7270354142820781</v>
+        <v>0.7202428475676655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.76303453567556</v>
+        <v>0.7647917258643325</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6694317467289587</v>
+        <v>0.6628400262286523</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9491220992917881</v>
+        <v>0.9491729026002366</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5993911991327489</v>
+        <v>0.5980687718523896</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7692716757170143</v>
+        <v>0.7665024162466988</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6886919534935646</v>
+        <v>0.6874932658585067</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9435974349205631</v>
+        <v>0.943422579713324</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6449223710509251</v>
+        <v>0.64357110513352</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8002292148338521</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7665630885977758</v>
+        <v>0.7665630885977757</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.761951858799265</v>
@@ -1365,7 +1365,7 @@
         <v>0.6919814325957037</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6483730256396795</v>
+        <v>0.6483730256396794</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.8008628907783112</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7925287064803701</v>
+        <v>0.7931264467786029</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6937924303675335</v>
+        <v>0.6953533344680944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7387740357032009</v>
+        <v>0.7518391435173295</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7201241302516821</v>
+        <v>0.7230385276809402</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7056957247332768</v>
+        <v>0.7023359414930139</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6617939457803963</v>
+        <v>0.6589658193848394</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6340865928886148</v>
+        <v>0.6277969608519686</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6018323934174767</v>
+        <v>0.6066092315553892</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7684910804584814</v>
+        <v>0.7654948876460186</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6925835524953539</v>
+        <v>0.6892173848759233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7069273923005466</v>
+        <v>0.704881726651598</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6753061338169587</v>
+        <v>0.6770194594016694</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8773575321133561</v>
+        <v>0.8787227051009858</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7992233273715181</v>
+        <v>0.8033681408157803</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.844390431664033</v>
+        <v>0.8454758549951235</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8052002980920596</v>
+        <v>0.8080015908717825</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8101862878926483</v>
+        <v>0.8097458424037239</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7660283538469024</v>
+        <v>0.7679588708648154</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7444567198847752</v>
+        <v>0.7435222771177136</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6921841251790802</v>
+        <v>0.6980800375646671</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8337240834978153</v>
+        <v>0.8358872688924774</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7669931679708611</v>
+        <v>0.7688791541737047</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7822727064762175</v>
+        <v>0.7817826844083325</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7384043941635456</v>
+        <v>0.7380462286725368</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.6964835391419721</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6327946725819896</v>
+        <v>0.6327946725819895</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.8051710104749984</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8137245125601537</v>
+        <v>0.8130866335205666</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7511152192755118</v>
+        <v>0.7500086448053762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6927062021311342</v>
+        <v>0.6932264626028068</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6624189424090363</v>
+        <v>0.6612136483068569</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7330935850467505</v>
+        <v>0.7344063222005536</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6691592599839929</v>
+        <v>0.6731771519536293</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.658703872172607</v>
+        <v>0.6617294633472399</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5988084215688714</v>
+        <v>0.5988604875574919</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7820049458302728</v>
+        <v>0.7826996342370117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7248789198420587</v>
+        <v>0.720697771485555</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6866877442837265</v>
+        <v>0.6882118732265956</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6404068482606315</v>
+        <v>0.6415783523239013</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8741118829083624</v>
+        <v>0.8727212022616138</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8190348686497726</v>
+        <v>0.8178870376888505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7645130231226324</v>
+        <v>0.7643841033763387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7364967276173517</v>
+        <v>0.7363488632790276</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7950122929241786</v>
+        <v>0.7984661233885383</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7431069015719155</v>
+        <v>0.7449762077291598</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7306268573792383</v>
+        <v>0.7340133654877193</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6639223847001737</v>
+        <v>0.6653911244820304</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8285175185590226</v>
+        <v>0.8263215733749262</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7732957928028605</v>
+        <v>0.7721679983278034</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7381102048424603</v>
+        <v>0.7375195310161671</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6916938961712843</v>
+        <v>0.6894930681436867</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.7980092646851964</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8571515208585472</v>
+        <v>0.8571515208585474</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.7676462706981061</v>
@@ -1649,7 +1649,7 @@
         <v>0.8047679601848157</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.8729404443083665</v>
+        <v>0.8729404443083664</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7377479351377478</v>
+        <v>0.7409567491112412</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.741563783022662</v>
+        <v>0.7405992645912426</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7835940311903445</v>
+        <v>0.7826645544667977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8675652368795856</v>
+        <v>0.866953708181958</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7308468801846311</v>
+        <v>0.7290460688655673</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7040731505102317</v>
+        <v>0.7016688011371006</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7657539235031944</v>
+        <v>0.764947381130095</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8334910195541994</v>
+        <v>0.8337391886808267</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7451536636857357</v>
+        <v>0.7450434837881348</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.7298739115263841</v>
+        <v>0.7321114626465398</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7841220562210144</v>
+        <v>0.7842637571427341</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8577135734610539</v>
+        <v>0.8572874986095024</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8037136455517492</v>
+        <v>0.8047823713305143</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8028777765170305</v>
+        <v>0.8019625541727503</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8405327207299741</v>
+        <v>0.8377277151578379</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9104301160429039</v>
+        <v>0.9097295044958391</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7935715677531818</v>
+        <v>0.7900420445221222</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7673039222453576</v>
+        <v>0.7678072161423501</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8248218817077184</v>
+        <v>0.8277761815547343</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8762236322766026</v>
+        <v>0.8777191339584275</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.789854607615961</v>
+        <v>0.7901960889285713</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7754799904544651</v>
+        <v>0.777037394786171</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8244000747913789</v>
+        <v>0.8261087987340413</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8881577168231456</v>
+        <v>0.8884284621575007</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.7677928238981824</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.7549219773282958</v>
+        <v>0.7549219773282959</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.7596167765213312</v>
@@ -1773,7 +1773,7 @@
         <v>0.7147581359444263</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.6928267041543175</v>
+        <v>0.6928267041543174</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.7866353095576866</v>
@@ -1785,7 +1785,7 @@
         <v>0.740729544728754</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.7230153149317786</v>
+        <v>0.7230153149317788</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7253063186853949</v>
+        <v>0.7248170623165755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7522989248894272</v>
+        <v>0.7520037011144863</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7397707995945242</v>
+        <v>0.7382820511464686</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6574545668663216</v>
+        <v>0.6586101528081197</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6998305208829499</v>
+        <v>0.6987059277760403</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.6781306238117023</v>
+        <v>0.6807292272499946</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.695966675942261</v>
+        <v>0.6951444627719594</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.730542085927929</v>
+        <v>0.7298686662986493</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7133889146434906</v>
+        <v>0.7132068531150032</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7552941103751369</v>
+        <v>0.7551464841603794</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.781408392546881</v>
+        <v>0.7827566438392146</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.770982488003939</v>
+        <v>0.7693361878954454</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6895998111834301</v>
+        <v>0.690375347867863</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7305561532948609</v>
+        <v>0.7303248284457015</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7057957400703344</v>
+        <v>0.7070555518718867</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7187208629726092</v>
+        <v>0.7177129790347291</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.7514850174507148</v>
+        <v>0.7512972403761872</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7337342263604703</v>
+        <v>0.7333332626634406</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>210130</v>
+        <v>211128</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>200752</v>
+        <v>201276</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>177978</v>
+        <v>179344</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>202713</v>
+        <v>202584</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>204365</v>
+        <v>204444</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>165615</v>
+        <v>165198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>163398</v>
+        <v>163004</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>196213</v>
+        <v>196738</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>422253</v>
+        <v>422621</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>374746</v>
+        <v>374710</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>353033</v>
+        <v>353121</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>408807</v>
+        <v>408885</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>235385</v>
+        <v>236474</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>232422</v>
+        <v>231200</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>212396</v>
+        <v>212071</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>235959</v>
+        <v>235883</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>229853</v>
+        <v>228163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>202046</v>
+        <v>199439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>196232</v>
+        <v>195732</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>221366</v>
+        <v>222903</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>458184</v>
+        <v>458564</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>422190</v>
+        <v>424271</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>399353</v>
+        <v>399267</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>450248</v>
+        <v>451763</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>356447</v>
+        <v>355662</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>342360</v>
+        <v>338601</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>350151</v>
+        <v>348406</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>291411</v>
+        <v>292308</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>308269</v>
+        <v>306984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>315218</v>
+        <v>314732</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>306445</v>
+        <v>306495</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>304294</v>
+        <v>306430</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>677019</v>
+        <v>678683</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>670364</v>
+        <v>670097</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>670303</v>
+        <v>670715</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>608191</v>
+        <v>609557</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>395840</v>
+        <v>395174</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>384107</v>
+        <v>382098</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>389389</v>
+        <v>390054</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>335002</v>
+        <v>337762</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>351395</v>
+        <v>348759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>364727</v>
+        <v>360442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>353187</v>
+        <v>351344</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>340032</v>
+        <v>341932</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>735723</v>
+        <v>735246</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>733792</v>
+        <v>731437</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>729554</v>
+        <v>732774</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>665096</v>
+        <v>663414</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>261211</v>
+        <v>259959</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>207819</v>
+        <v>206462</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>264050</v>
+        <v>265172</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>215650</v>
+        <v>214330</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>249490</v>
+        <v>249512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>210866</v>
+        <v>212381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>247458</v>
+        <v>247917</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>225894</v>
+        <v>226742</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>518731</v>
+        <v>517173</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>430274</v>
+        <v>430243</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>520253</v>
+        <v>520031</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>447539</v>
+        <v>446819</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>285842</v>
+        <v>284781</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>240772</v>
+        <v>240278</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>287356</v>
+        <v>288532</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>243889</v>
+        <v>242952</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>278125</v>
+        <v>277925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>246597</v>
+        <v>247046</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>277522</v>
+        <v>278037</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>254109</v>
+        <v>254762</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>556060</v>
+        <v>555972</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>478922</v>
+        <v>478094</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>559220</v>
+        <v>559718</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>487830</v>
+        <v>488408</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>289341</v>
+        <v>288711</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>235580</v>
+        <v>234893</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>222765</v>
+        <v>221647</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>242841</v>
+        <v>241938</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>288206</v>
+        <v>287816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>195067</v>
+        <v>194540</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>203214</v>
+        <v>202078</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>227807</v>
+        <v>227357</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>587058</v>
+        <v>584055</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>441979</v>
+        <v>441680</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>438193</v>
+        <v>437916</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>482005</v>
+        <v>484141</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>314899</v>
+        <v>314361</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>271898</v>
+        <v>272933</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>260484</v>
+        <v>261712</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>285971</v>
+        <v>285032</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>317196</v>
+        <v>316788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>233012</v>
+        <v>236368</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>242445</v>
+        <v>242112</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>265645</v>
+        <v>266169</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>625670</v>
+        <v>623116</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>495937</v>
+        <v>496732</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>492150</v>
+        <v>491246</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>538056</v>
+        <v>539871</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>139008</v>
+        <v>137908</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>130751</v>
+        <v>130611</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>185831</v>
+        <v>185153</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>125836</v>
+        <v>125673</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>131556</v>
+        <v>130377</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>117067</v>
+        <v>115492</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>190905</v>
+        <v>191112</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>114815</v>
+        <v>115355</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>277733</v>
+        <v>278836</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>256393</v>
+        <v>255547</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>382659</v>
+        <v>382573</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>246559</v>
+        <v>246383</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>164607</v>
+        <v>163627</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>159413</v>
+        <v>159196</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>201251</v>
+        <v>201345</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>149526</v>
+        <v>148129</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>157699</v>
+        <v>158063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>146405</v>
+        <v>144963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>207466</v>
+        <v>207477</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>135989</v>
+        <v>135689</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>315388</v>
+        <v>314252</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>297045</v>
+        <v>296528</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>405566</v>
+        <v>405491</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>278957</v>
+        <v>278373</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>213093</v>
+        <v>213253</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>190086</v>
+        <v>190514</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>194388</v>
+        <v>197826</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>194943</v>
+        <v>195732</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>194885</v>
+        <v>193957</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>185323</v>
+        <v>184531</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>172567</v>
+        <v>170855</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>158494</v>
+        <v>159752</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>418857</v>
+        <v>417224</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>383700</v>
+        <v>381835</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>378399</v>
+        <v>377304</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>360653</v>
+        <v>361568</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>235901</v>
+        <v>236268</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>218972</v>
+        <v>220108</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>222179</v>
+        <v>222464</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>217973</v>
+        <v>218732</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>223741</v>
+        <v>223619</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>214512</v>
+        <v>215052</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>202604</v>
+        <v>202350</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>182288</v>
+        <v>183841</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>454411</v>
+        <v>455590</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>424923</v>
+        <v>425968</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>418729</v>
+        <v>418467</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>394352</v>
+        <v>394160</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>493093</v>
+        <v>492707</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>495644</v>
+        <v>494914</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>451777</v>
+        <v>452116</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>476734</v>
+        <v>475867</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>465386</v>
+        <v>466219</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>463454</v>
+        <v>466237</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>454072</v>
+        <v>456157</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>457590</v>
+        <v>457630</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>970309</v>
+        <v>971171</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>980377</v>
+        <v>974722</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>921214</v>
+        <v>923258</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>950272</v>
+        <v>952010</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>529686</v>
+        <v>528844</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>540463</v>
+        <v>539706</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>498609</v>
+        <v>498524</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>530047</v>
+        <v>529941</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>504694</v>
+        <v>506886</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>514670</v>
+        <v>515965</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>503651</v>
+        <v>505986</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>507348</v>
+        <v>508471</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1028021</v>
+        <v>1025297</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1045859</v>
+        <v>1044334</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>990198</v>
+        <v>989406</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1026374</v>
+        <v>1023108</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>536110</v>
+        <v>538442</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>575585</v>
+        <v>574836</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>610093</v>
+        <v>609369</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>692380</v>
+        <v>691891</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>567571</v>
+        <v>566172</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>576501</v>
+        <v>574532</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>631814</v>
+        <v>631148</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>691306</v>
+        <v>691512</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1120173</v>
+        <v>1120007</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1164138</v>
+        <v>1167707</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1257473</v>
+        <v>1257700</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1395913</v>
+        <v>1395220</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>584047</v>
+        <v>584823</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>623175</v>
+        <v>622465</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>654424</v>
+        <v>652241</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>726589</v>
+        <v>726030</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>616282</v>
+        <v>613541</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>628275</v>
+        <v>628687</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>680550</v>
+        <v>682987</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>726749</v>
+        <v>727989</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1187371</v>
+        <v>1187884</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1236879</v>
+        <v>1239363</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1322066</v>
+        <v>1324806</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1445461</v>
+        <v>1445901</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2475877</v>
+        <v>2474207</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2548476</v>
+        <v>2547476</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2536293</v>
+        <v>2531189</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2333279</v>
+        <v>2337380</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2470403</v>
+        <v>2466433</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2457275</v>
+        <v>2466692</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4845680</v>
+        <v>4839955</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5053588</v>
+        <v>5048930</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>5030881</v>
+        <v>5029597</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2578242</v>
+        <v>2577738</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2647087</v>
+        <v>2651654</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2643302</v>
+        <v>2637658</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2447361</v>
+        <v>2450113</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2578865</v>
+        <v>2578048</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2557523</v>
+        <v>2562088</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5004106</v>
+        <v>4997089</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5198463</v>
+        <v>5197164</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>5174358</v>
+        <v>5171530</v>
       </c>
     </row>
     <row r="40">
